--- a/mapping/metadata4Ing_VIMMP.xlsx
+++ b/mapping/metadata4Ing_VIMMP.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>metadata4Ing_IRI</t>
-  </si>
-  <si>
-    <t>metadata4Ing_DESC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+  <si>
+    <t>metadata4ing_IRI</t>
+  </si>
+  <si>
+    <t>metadata4ing_DESC</t>
   </si>
   <si>
     <t>VIMMP_IRI</t>
@@ -28,6 +28,9 @@
     <t>VIMMP_DESC</t>
   </si>
   <si>
+    <t>VIMMP_DEF</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/BFO_0000015</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>http://xmlns.com/foaf/0.1/Agent</t>
   </si>
   <si>
+    <t>http://emmo.info/emmo#EMMO_b081b346_7279_46ef_9a3d_2c088fcd79f4</t>
+  </si>
+  <si>
     <t>http://www.molmod.info/semantics/pims-ii.ttl#Variable</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>http://www.molmod.info/semantics/pims-ii.ttl#Property</t>
   </si>
   <si>
+    <t>http://w3id.org/nfdi4ing/metadata4ing#NumericalAssignment</t>
+  </si>
+  <si>
     <t>{'label': 'process', 'prefLabel': 'process', 'altLabel': None, 'name': 'BFO_0000015'}</t>
   </si>
   <si>
@@ -55,13 +64,19 @@
     <t>{'label': 'Agent', 'prefLabel': 'Agent', 'altLabel': None, 'name': 'Agent'}</t>
   </si>
   <si>
-    <t>{'Variable'}</t>
-  </si>
-  <si>
-    <t>{'Project'}</t>
-  </si>
-  <si>
-    <t>{'Property'}</t>
+    <t>{'label': None, 'prefLabel': 'MeasurementUnit', 'altLabel': None, 'name': 'EMMO_b081b346_7279_46ef_9a3d_2c088fcd79f4'}</t>
+  </si>
+  <si>
+    <t>{'label': None, 'prefLabel': 'Variable', 'altLabel': None, 'name': 'Variable'}</t>
+  </si>
+  <si>
+    <t>{'label': None, 'prefLabel': 'Project', 'altLabel': None, 'name': 'Project'}</t>
+  </si>
+  <si>
+    <t>{'label': None, 'prefLabel': 'Eigenschaft', 'altLabel': None, 'name': 'Property'}</t>
+  </si>
+  <si>
+    <t>{'label': None, 'prefLabel': 'numerical', 'altLabel': None, 'name': 'NumericalAssignment'}</t>
   </si>
   <si>
     <t>https://emmc.eu/semantics/evmpo/evmpo.ttl#process</t>
@@ -73,6 +88,9 @@
     <t>https://emmc.eu/semantics/evmpo/evmpo.ttl#agent</t>
   </si>
   <si>
+    <t>https://purl.vimmp.eu/semantics/alignment/emmo1s.ttl#MeasurementUnit</t>
+  </si>
+  <si>
     <t>https://purl.vimmp.eu/semantics/alignment/emmo1s.ttl#Variable</t>
   </si>
   <si>
@@ -82,6 +100,9 @@
     <t>https://emmc.eu/semantics/evmpo/evmpo.ttl#property</t>
   </si>
   <si>
+    <t>https://purl.vimmp.eu/semantics/alignment/emmo1s.ttl#Numerical</t>
+  </si>
+  <si>
     <t>{'name': 'process'}</t>
   </si>
   <si>
@@ -91,6 +112,9 @@
     <t>{'name': 'Agent'}</t>
   </si>
   <si>
+    <t>{'label': 'MeasurementUnit', 'name': 'MeasurementUnit'}</t>
+  </si>
+  <si>
     <t>{'label': 'Variable', 'name': 'Variable'}</t>
   </si>
   <si>
@@ -98,6 +122,12 @@
   </si>
   <si>
     <t>{'name': 'Property'}</t>
+  </si>
+  <si>
+    <t>{'label': 'numerical', 'name': 'numerical'}</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -468,13 +498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,107 +517,168 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -598,12 +689,16 @@
     <hyperlink ref="D3" r:id="rId4" location="person"/>
     <hyperlink ref="B4" r:id="rId5"/>
     <hyperlink ref="D4" r:id="rId6" location="agent"/>
-    <hyperlink ref="B5" r:id="rId7" location="Variable"/>
-    <hyperlink ref="D5" r:id="rId8" location="Variable"/>
-    <hyperlink ref="B6" r:id="rId9"/>
-    <hyperlink ref="D6" r:id="rId10" location="project"/>
-    <hyperlink ref="B7" r:id="rId11" location="Property"/>
-    <hyperlink ref="D7" r:id="rId12" location="property"/>
+    <hyperlink ref="B5" r:id="rId7" location="EMMO_b081b346_7279_46ef_9a3d_2c088fcd79f4"/>
+    <hyperlink ref="D5" r:id="rId8" location="MeasurementUnit"/>
+    <hyperlink ref="B6" r:id="rId9" location="Variable"/>
+    <hyperlink ref="D6" r:id="rId10" location="Variable"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12" location="project"/>
+    <hyperlink ref="B8" r:id="rId13" location="Property"/>
+    <hyperlink ref="D8" r:id="rId14" location="property"/>
+    <hyperlink ref="B9" r:id="rId15" location="NumericalAssignment"/>
+    <hyperlink ref="D9" r:id="rId16" location="Numerical"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
